--- a/TRACKER_TEST2.xlsx
+++ b/TRACKER_TEST2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.rodrigues\Desktop\Ficheiros_Python\Track_Lojas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.rodrigues\Desktop\Ficheiros_Python\Track_Prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CD88F1-0C4E-45E7-9671-BDED9473169E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229B94AD-E37C-43D8-AF65-373A029EFCE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>url</t>
   </si>
@@ -173,6 +173,36 @@
   </si>
   <si>
     <t>680</t>
+  </si>
+  <si>
+    <t>https://www.chiptec.net/componentes-para-computadores/placas-graficas/placas-graficas-pci-e/asus-tuf-gaming-rtx-3070-8gb-gddr6-pci-e.html</t>
+  </si>
+  <si>
+    <t>TUF 3070 CHIPTEC</t>
+  </si>
+  <si>
+    <t>https://www.chiptec.net/componentes-para-computadores/placas-graficas/placas-graficas-pci-e/asus-tuf-gaming-oc-rtx-3070-8gb-gddr6-pci-e.html</t>
+  </si>
+  <si>
+    <t>TUF OC 3070 CHIPTEC</t>
+  </si>
+  <si>
+    <t>https://www.chiptec.net/componentes-para-computadores/placas-graficas/placas-graficas-pci-e/asus-rog-strix-geforce-rtx-3070-8gb-gddr6-pci-e.html</t>
+  </si>
+  <si>
+    <t>ROG 3070 CHIPTEC</t>
+  </si>
+  <si>
+    <t>https://www.chiptec.net/componentes-para-computadores/placas-graficas/placas-graficas-pci-e/asus-rog-strix-geforce-rtx-3070-oc-8gb-gddr6-pci-e.html</t>
+  </si>
+  <si>
+    <t>ROG OC 3070 CHIPTEC</t>
+  </si>
+  <si>
+    <t>https://www.gamingreplay.com/pt/playstation-4/21574-little-nightmares-ii-tv-edition-ps4-3391892010039.html?search_query=little%20nightm&amp;fast_search=fs</t>
+  </si>
+  <si>
+    <t>LN II Gaming Replay</t>
   </si>
 </sst>
 </file>
@@ -587,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,46 +819,101 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>850</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +934,10 @@
     <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TRACKER_TEST2.xlsx
+++ b/TRACKER_TEST2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.rodrigues\Desktop\Ficheiros_Python\Track_Prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.rodrigues\Desktop\Ficheiros_Python\Track_Prices\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229B94AD-E37C-43D8-AF65-373A029EFCE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898FEC1E-A12D-4C46-96FD-380476C83EF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>url</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>LN II Gaming Replay</t>
+  </si>
+  <si>
+    <t>https://www.clickfiel.pt/2/9611/Placa-Grafica-Asus-GeForce-RTX-3070-ROG-Strix-8GB-GDDR6</t>
+  </si>
+  <si>
+    <t>ROG 3070 CLICKFIEL</t>
+  </si>
+  <si>
+    <t>https://www.clickfiel.pt/2/9449/Placa-Grafica-Asus-ROG-Strix-GeForce-RTX-3080-10GB-GDDR6X</t>
+  </si>
+  <si>
+    <t>ROG 3080 CLICKFIEL</t>
   </si>
 </sst>
 </file>
@@ -617,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,6 +926,28 @@
       </c>
       <c r="C26">
         <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
